--- a/tabelle.xlsx
+++ b/tabelle.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucag\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18514" windowHeight="8117"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13663" windowHeight="3789"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>N</t>
   </si>
@@ -92,16 +88,13 @@
     <t>RIFERIMENTO</t>
   </si>
   <si>
-    <t>ricerca prodotti in esaurimento</t>
-  </si>
-  <si>
-    <t>OPERAZIONE 3, 4</t>
-  </si>
-  <si>
-    <t>OPERAZIONE 1, 2, 5 e 6</t>
-  </si>
-  <si>
-    <t>OPERAZIONE 7</t>
+    <t>OPERAZIONE 3</t>
+  </si>
+  <si>
+    <t>OPERAZIONE 1, 2, 4 e 5</t>
+  </si>
+  <si>
+    <t>OPERAZIONE 6</t>
   </si>
 </sst>
 </file>
@@ -568,11 +561,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,8 +617,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,9 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1014,172 +1001,196 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="20">
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="37">
+        <v>5</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="14" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="38">
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="L15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="38">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12">
+      <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="G16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="L16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
-    </row>
-    <row r="17" spans="2:15" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="O16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1190,120 +1201,82 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="14" t="s">
+    </row>
+    <row r="19" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="14">
+      <c r="N19" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="O19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="14" t="s">
+    </row>
+    <row r="20" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" customFormat="1" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N21" s="17">
         <v>1</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O21" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="14">
-        <v>1</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="14">
-        <v>1</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="14">
-        <v>1</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="18">
-        <v>1</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="22" spans="1:15" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/tabelle.xlsx
+++ b/tabelle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13663" windowHeight="3789"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13663" windowHeight="3823"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>ORDINE</t>
-  </si>
-  <si>
-    <t>DETTAGLIO ORDINE</t>
-  </si>
-  <si>
-    <t>RIFERIMENTO</t>
   </si>
   <si>
     <t>OPERAZIONE 3</t>
@@ -561,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,15 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -703,6 +688,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1004,115 +995,115 @@
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>4</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>5</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="14" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="23" t="s">
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="G15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="L15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="L15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
@@ -1234,33 +1225,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="13">
-        <v>1</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" customFormat="1" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" s="17">
-        <v>1</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>10</v>
-      </c>
+    <row r="20" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
     </row>
     <row r="22" spans="1:15" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
